--- a/result/reply19.xlsx
+++ b/result/reply19.xlsx
@@ -1213,7 +1213,7 @@
         <v>0</v>
       </c>
       <c r="AL2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM2" t="n">
         <v>0</v>
@@ -1399,7 +1399,7 @@
         <v>0</v>
       </c>
       <c r="CV2" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="CW2" t="n">
         <v>0</v>
@@ -2542,10 +2542,10 @@
         <v>0</v>
       </c>
       <c r="AJ5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL5" t="n">
         <v>0</v>
@@ -2572,7 +2572,7 @@
         <v>0</v>
       </c>
       <c r="AT5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU5" t="n">
         <v>0</v>
@@ -2587,7 +2587,7 @@
         <v>0</v>
       </c>
       <c r="AY5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ5" t="n">
         <v>0</v>
@@ -2632,10 +2632,10 @@
         <v>0</v>
       </c>
       <c r="BN5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BO5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BP5" t="n">
         <v>0</v>
@@ -2695,7 +2695,7 @@
         <v>0</v>
       </c>
       <c r="CI5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CJ5" t="n">
         <v>0</v>
@@ -2734,7 +2734,7 @@
         <v>0</v>
       </c>
       <c r="CV5" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="CW5" t="n">
         <v>0</v>
@@ -3179,7 +3179,7 @@
         <v>0</v>
       </c>
       <c r="CV6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CW6" t="n">
         <v>0</v>
@@ -4893,7 +4893,7 @@
         <v>0</v>
       </c>
       <c r="BZ10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CA10" t="n">
         <v>0</v>
@@ -5678,7 +5678,7 @@
         <v>0</v>
       </c>
       <c r="AQ12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR12" t="n">
         <v>0</v>
@@ -5729,7 +5729,7 @@
         <v>0</v>
       </c>
       <c r="BH12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BI12" t="n">
         <v>0</v>
@@ -6718,7 +6718,7 @@
         <v>0</v>
       </c>
       <c r="CO14" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="CP14" t="n">
         <v>0</v>
@@ -7142,7 +7142,7 @@
         <v>0</v>
       </c>
       <c r="CH15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CI15" t="n">
         <v>0</v>
@@ -7491,7 +7491,7 @@
         <v>0</v>
       </c>
       <c r="BB16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BC16" t="n">
         <v>0</v>
@@ -7987,7 +7987,7 @@
         <v>0</v>
       </c>
       <c r="BS17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BT17" t="n">
         <v>0</v>
@@ -8805,7 +8805,7 @@
         <v>0</v>
       </c>
       <c r="AU19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AV19" t="n">
         <v>0</v>
@@ -9211,7 +9211,7 @@
         <v>0</v>
       </c>
       <c r="AH20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI20" t="n">
         <v>0</v>
@@ -9223,13 +9223,13 @@
         <v>0</v>
       </c>
       <c r="AL20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AM20" t="n">
         <v>0</v>
       </c>
       <c r="AN20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AO20" t="n">
         <v>0</v>
@@ -9259,7 +9259,7 @@
         <v>0</v>
       </c>
       <c r="AX20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AY20" t="n">
         <v>0</v>
@@ -9854,7 +9854,7 @@
         <v>0</v>
       </c>
       <c r="CV21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CW21" t="n">
         <v>0</v>
@@ -10107,19 +10107,19 @@
         <v>0</v>
       </c>
       <c r="AJ22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK22" t="n">
         <v>0</v>
       </c>
       <c r="AL22" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="AM22" t="n">
         <v>0</v>
       </c>
       <c r="AN22" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="AO22" t="n">
         <v>0</v>
@@ -10128,7 +10128,7 @@
         <v>0</v>
       </c>
       <c r="AQ22" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AR22" t="n">
         <v>0</v>
@@ -10149,7 +10149,7 @@
         <v>0</v>
       </c>
       <c r="AX22" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="AY22" t="n">
         <v>0</v>
@@ -10170,7 +10170,7 @@
         <v>0</v>
       </c>
       <c r="BE22" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="BF22" t="n">
         <v>0</v>
@@ -10179,7 +10179,7 @@
         <v>0</v>
       </c>
       <c r="BH22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BI22" t="n">
         <v>0</v>
@@ -10236,7 +10236,7 @@
         <v>0</v>
       </c>
       <c r="CA22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CB22" t="n">
         <v>0</v>
@@ -10552,13 +10552,13 @@
         <v>0</v>
       </c>
       <c r="AJ23" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AK23" t="n">
         <v>0</v>
       </c>
       <c r="AL23" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AM23" t="n">
         <v>0</v>
@@ -10744,7 +10744,7 @@
         <v>0</v>
       </c>
       <c r="CV23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CW23" t="n">
         <v>0</v>
@@ -11003,13 +11003,13 @@
         <v>0</v>
       </c>
       <c r="AL24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM24" t="n">
         <v>0</v>
       </c>
       <c r="AN24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO24" t="n">
         <v>0</v>
@@ -11057,10 +11057,10 @@
         <v>0</v>
       </c>
       <c r="BD24" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="BE24" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="BF24" t="n">
         <v>0</v>
@@ -11102,7 +11102,7 @@
         <v>0</v>
       </c>
       <c r="BS24" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BT24" t="n">
         <v>0</v>
@@ -11114,7 +11114,7 @@
         <v>0</v>
       </c>
       <c r="BW24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BX24" t="n">
         <v>0</v>
@@ -11153,13 +11153,13 @@
         <v>0</v>
       </c>
       <c r="CJ24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CK24" t="n">
         <v>0</v>
       </c>
       <c r="CL24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CM24" t="n">
         <v>0</v>
@@ -12338,7 +12338,7 @@
         <v>0</v>
       </c>
       <c r="AL27" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AM27" t="n">
         <v>0</v>
@@ -12488,7 +12488,7 @@
         <v>0</v>
       </c>
       <c r="CJ27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CK27" t="n">
         <v>0</v>
@@ -12969,7 +12969,7 @@
         <v>0</v>
       </c>
       <c r="CV28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CW28" t="n">
         <v>0</v>
@@ -13285,7 +13285,7 @@
         <v>0</v>
       </c>
       <c r="BE29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BF29" t="n">
         <v>0</v>
@@ -13381,10 +13381,10 @@
         <v>0</v>
       </c>
       <c r="CK29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CL29" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="CM29" t="n">
         <v>0</v>
@@ -13751,7 +13751,7 @@
         <v>0</v>
       </c>
       <c r="BL30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BM30" t="n">
         <v>0</v>
@@ -14175,7 +14175,7 @@
         <v>0</v>
       </c>
       <c r="BE31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BF31" t="n">
         <v>0</v>
@@ -14578,7 +14578,7 @@
         <v>0</v>
       </c>
       <c r="AQ32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR32" t="n">
         <v>0</v>
@@ -14629,7 +14629,7 @@
         <v>0</v>
       </c>
       <c r="BH32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BI32" t="n">
         <v>0</v>
@@ -14644,7 +14644,7 @@
         <v>0</v>
       </c>
       <c r="BM32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BN32" t="n">
         <v>0</v>
@@ -15005,7 +15005,7 @@
         <v>0</v>
       </c>
       <c r="AK33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL33" t="n">
         <v>0</v>
@@ -15032,7 +15032,7 @@
         <v>0</v>
       </c>
       <c r="AT33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU33" t="n">
         <v>0</v>
@@ -15047,7 +15047,7 @@
         <v>0</v>
       </c>
       <c r="AY33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ33" t="n">
         <v>0</v>
@@ -15092,10 +15092,10 @@
         <v>0</v>
       </c>
       <c r="BN33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BO33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BP33" t="n">
         <v>0</v>
@@ -15155,7 +15155,7 @@
         <v>0</v>
       </c>
       <c r="CI33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CJ33" t="n">
         <v>0</v>
@@ -15194,7 +15194,7 @@
         <v>0</v>
       </c>
       <c r="CV33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CW33" t="n">
         <v>0</v>
@@ -15576,7 +15576,7 @@
         <v>0</v>
       </c>
       <c r="CA34" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="CB34" t="n">
         <v>0</v>
@@ -16343,7 +16343,7 @@
         <v>0</v>
       </c>
       <c r="AL36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM36" t="n">
         <v>0</v>
@@ -16358,7 +16358,7 @@
         <v>0</v>
       </c>
       <c r="AQ36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR36" t="n">
         <v>0</v>
@@ -16400,7 +16400,7 @@
         <v>0</v>
       </c>
       <c r="BE36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BF36" t="n">
         <v>0</v>
@@ -16466,7 +16466,7 @@
         <v>0</v>
       </c>
       <c r="CA36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CB36" t="n">
         <v>0</v>
@@ -16788,7 +16788,7 @@
         <v>0</v>
       </c>
       <c r="AL37" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AM37" t="n">
         <v>0</v>
@@ -16803,7 +16803,7 @@
         <v>0</v>
       </c>
       <c r="AQ37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR37" t="n">
         <v>0</v>
@@ -16812,7 +16812,7 @@
         <v>0</v>
       </c>
       <c r="AT37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU37" t="n">
         <v>0</v>
@@ -16827,7 +16827,7 @@
         <v>0</v>
       </c>
       <c r="AY37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ37" t="n">
         <v>0</v>
@@ -16872,10 +16872,10 @@
         <v>0</v>
       </c>
       <c r="BN37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BO37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BP37" t="n">
         <v>0</v>
@@ -16935,7 +16935,7 @@
         <v>0</v>
       </c>
       <c r="CI37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CJ37" t="n">
         <v>0</v>
@@ -16974,7 +16974,7 @@
         <v>0</v>
       </c>
       <c r="CV37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CW37" t="n">
         <v>0</v>
@@ -17239,7 +17239,7 @@
         <v>0</v>
       </c>
       <c r="AN38" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AO38" t="n">
         <v>0</v>
@@ -17248,7 +17248,7 @@
         <v>0</v>
       </c>
       <c r="AQ38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR38" t="n">
         <v>0</v>
@@ -17269,7 +17269,7 @@
         <v>0</v>
       </c>
       <c r="AX38" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="AY38" t="n">
         <v>0</v>
@@ -17290,7 +17290,7 @@
         <v>0</v>
       </c>
       <c r="BE38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BF38" t="n">
         <v>0</v>
@@ -17684,7 +17684,7 @@
         <v>0</v>
       </c>
       <c r="AN39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO39" t="n">
         <v>0</v>
@@ -17708,7 +17708,7 @@
         <v>0</v>
       </c>
       <c r="AV39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AW39" t="n">
         <v>0</v>
@@ -18123,7 +18123,7 @@
         <v>0</v>
       </c>
       <c r="AL40" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AM40" t="n">
         <v>0</v>
@@ -18159,7 +18159,7 @@
         <v>0</v>
       </c>
       <c r="AX40" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AY40" t="n">
         <v>0</v>
@@ -18667,7 +18667,7 @@
         <v>0</v>
       </c>
       <c r="BS41" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BT41" t="n">
         <v>0</v>
@@ -18691,7 +18691,7 @@
         <v>0</v>
       </c>
       <c r="CA41" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="CB41" t="n">
         <v>0</v>
@@ -19151,7 +19151,7 @@
         <v>0</v>
       </c>
       <c r="CF42" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="CG42" t="n">
         <v>0</v>
@@ -19455,10 +19455,10 @@
         <v>0</v>
       </c>
       <c r="AK43" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AL43" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AM43" t="n">
         <v>0</v>
@@ -19569,7 +19569,7 @@
         <v>0</v>
       </c>
       <c r="BW43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BX43" t="n">
         <v>0</v>
@@ -19599,7 +19599,7 @@
         <v>0</v>
       </c>
       <c r="CG43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CH43" t="n">
         <v>0</v>
@@ -20041,7 +20041,7 @@
         <v>0</v>
       </c>
       <c r="CF44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CG44" t="n">
         <v>0</v>
@@ -20790,7 +20790,7 @@
         <v>0</v>
       </c>
       <c r="AK46" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL46" t="n">
         <v>0</v>
@@ -20832,7 +20832,7 @@
         <v>0</v>
       </c>
       <c r="AY46" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ46" t="n">
         <v>0</v>
@@ -20877,10 +20877,10 @@
         <v>0</v>
       </c>
       <c r="BN46" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BO46" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BP46" t="n">
         <v>0</v>
@@ -20940,7 +20940,7 @@
         <v>0</v>
       </c>
       <c r="CI46" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CJ46" t="n">
         <v>0</v>
@@ -20979,7 +20979,7 @@
         <v>0</v>
       </c>
       <c r="CV46" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CW46" t="n">
         <v>0</v>
@@ -21361,7 +21361,7 @@
         <v>0</v>
       </c>
       <c r="CA47" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="CB47" t="n">
         <v>0</v>
@@ -21869,7 +21869,7 @@
         <v>0</v>
       </c>
       <c r="CV48" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="CW48" t="n">
         <v>0</v>
@@ -22140,13 +22140,13 @@
         <v>0</v>
       </c>
       <c r="AP49" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ49" t="n">
         <v>0</v>
       </c>
       <c r="AR49" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AS49" t="n">
         <v>0</v>
@@ -22263,10 +22263,10 @@
         <v>0</v>
       </c>
       <c r="CE49" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CF49" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="CG49" t="n">
         <v>0</v>
@@ -22299,7 +22299,7 @@
         <v>0</v>
       </c>
       <c r="CQ49" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="CR49" t="n">
         <v>0</v>
@@ -22311,7 +22311,7 @@
         <v>0</v>
       </c>
       <c r="CU49" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="CV49" t="n">
         <v>0</v>
@@ -22573,13 +22573,13 @@
         <v>0</v>
       </c>
       <c r="AL50" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="AM50" t="n">
         <v>0</v>
       </c>
       <c r="AN50" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="AO50" t="n">
         <v>0</v>
@@ -23015,10 +23015,10 @@
         <v>0</v>
       </c>
       <c r="AK51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM51" t="n">
         <v>0</v>
@@ -23033,7 +23033,7 @@
         <v>0</v>
       </c>
       <c r="AQ51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR51" t="n">
         <v>0</v>
@@ -23042,25 +23042,25 @@
         <v>0</v>
       </c>
       <c r="AT51" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AU51" t="n">
         <v>0</v>
       </c>
       <c r="AV51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AW51" t="n">
         <v>0</v>
       </c>
       <c r="AX51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY51" t="n">
         <v>0</v>
       </c>
       <c r="AZ51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA51" t="n">
         <v>0</v>
@@ -23069,16 +23069,16 @@
         <v>0</v>
       </c>
       <c r="BC51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BD51" t="n">
         <v>0</v>
       </c>
       <c r="BE51" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="BF51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BG51" t="n">
         <v>0</v>
@@ -23102,13 +23102,13 @@
         <v>0</v>
       </c>
       <c r="BN51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BO51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BP51" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BQ51" t="n">
         <v>0</v>
@@ -23123,19 +23123,19 @@
         <v>0</v>
       </c>
       <c r="BU51" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="BV51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BW51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BX51" t="n">
         <v>0</v>
       </c>
       <c r="BY51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BZ51" t="n">
         <v>0</v>
@@ -23147,10 +23147,10 @@
         <v>0</v>
       </c>
       <c r="CC51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CD51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CE51" t="n">
         <v>0</v>
@@ -23159,16 +23159,16 @@
         <v>0</v>
       </c>
       <c r="CG51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CH51" t="n">
         <v>0</v>
       </c>
       <c r="CI51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CJ51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CK51" t="n">
         <v>0</v>
@@ -23180,7 +23180,7 @@
         <v>0</v>
       </c>
       <c r="CN51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CO51" t="n">
         <v>0</v>
@@ -23192,7 +23192,7 @@
         <v>0</v>
       </c>
       <c r="CR51" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="CS51" t="n">
         <v>0</v>
@@ -23204,7 +23204,7 @@
         <v>0</v>
       </c>
       <c r="CV51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CW51" t="n">
         <v>0</v>
@@ -23502,7 +23502,7 @@
         <v>0</v>
       </c>
       <c r="AY52" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ52" t="n">
         <v>0</v>
@@ -23523,10 +23523,10 @@
         <v>0</v>
       </c>
       <c r="BF52" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BG52" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BH52" t="n">
         <v>0</v>
@@ -23553,7 +23553,7 @@
         <v>0</v>
       </c>
       <c r="BP52" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BQ52" t="n">
         <v>0</v>
@@ -23574,7 +23574,7 @@
         <v>0</v>
       </c>
       <c r="BW52" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BX52" t="n">
         <v>0</v>
@@ -24386,13 +24386,13 @@
         <v>0</v>
       </c>
       <c r="AW54" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AX54" t="n">
         <v>0</v>
       </c>
       <c r="AY54" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="AZ54" t="n">
         <v>0</v>
@@ -24407,7 +24407,7 @@
         <v>0</v>
       </c>
       <c r="BD54" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BE54" t="n">
         <v>0</v>
@@ -24434,7 +24434,7 @@
         <v>0</v>
       </c>
       <c r="BM54" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BN54" t="n">
         <v>0</v>
@@ -24470,7 +24470,7 @@
         <v>0</v>
       </c>
       <c r="BY54" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BZ54" t="n">
         <v>0</v>
@@ -24491,7 +24491,7 @@
         <v>0</v>
       </c>
       <c r="CF54" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CG54" t="n">
         <v>0</v>
@@ -24503,7 +24503,7 @@
         <v>0</v>
       </c>
       <c r="CJ54" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="CK54" t="n">
         <v>0</v>
@@ -24798,7 +24798,7 @@
         <v>0</v>
       </c>
       <c r="AL55" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM55" t="n">
         <v>0</v>
@@ -24813,7 +24813,7 @@
         <v>0</v>
       </c>
       <c r="AQ55" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR55" t="n">
         <v>0</v>
@@ -24822,7 +24822,7 @@
         <v>0</v>
       </c>
       <c r="AT55" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU55" t="n">
         <v>0</v>
@@ -24837,7 +24837,7 @@
         <v>0</v>
       </c>
       <c r="AY55" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ55" t="n">
         <v>0</v>
@@ -24888,7 +24888,7 @@
         <v>0</v>
       </c>
       <c r="BP55" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BQ55" t="n">
         <v>0</v>
@@ -24903,10 +24903,10 @@
         <v>0</v>
       </c>
       <c r="BU55" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BV55" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BW55" t="n">
         <v>0</v>
@@ -24915,22 +24915,22 @@
         <v>0</v>
       </c>
       <c r="BY55" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BZ55" t="n">
         <v>0</v>
       </c>
       <c r="CA55" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="CB55" t="n">
         <v>0</v>
       </c>
       <c r="CC55" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="CD55" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CE55" t="n">
         <v>0</v>
@@ -24945,10 +24945,10 @@
         <v>0</v>
       </c>
       <c r="CI55" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CJ55" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CK55" t="n">
         <v>0</v>
@@ -24960,13 +24960,13 @@
         <v>0</v>
       </c>
       <c r="CN55" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CO55" t="n">
         <v>0</v>
       </c>
       <c r="CP55" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="CQ55" t="n">
         <v>0</v>
@@ -25688,13 +25688,13 @@
         <v>0</v>
       </c>
       <c r="AL57" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AM57" t="n">
         <v>0</v>
       </c>
       <c r="AN57" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO57" t="n">
         <v>0</v>
@@ -25724,7 +25724,7 @@
         <v>0</v>
       </c>
       <c r="AX57" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY57" t="n">
         <v>0</v>
@@ -25742,7 +25742,7 @@
         <v>0</v>
       </c>
       <c r="BD57" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BE57" t="n">
         <v>0</v>
@@ -25787,7 +25787,7 @@
         <v>0</v>
       </c>
       <c r="BS57" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BT57" t="n">
         <v>0</v>
@@ -25868,7 +25868,7 @@
         <v>0</v>
       </c>
       <c r="CT57" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CU57" t="n">
         <v>0</v>
@@ -26172,10 +26172,10 @@
         <v>0</v>
       </c>
       <c r="AY58" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ58" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA58" t="n">
         <v>0</v>
@@ -26187,7 +26187,7 @@
         <v>0</v>
       </c>
       <c r="BD58" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BE58" t="n">
         <v>0</v>
@@ -26223,7 +26223,7 @@
         <v>0</v>
       </c>
       <c r="BP58" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BQ58" t="n">
         <v>0</v>
@@ -26244,7 +26244,7 @@
         <v>0</v>
       </c>
       <c r="BW58" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BX58" t="n">
         <v>0</v>
@@ -26259,7 +26259,7 @@
         <v>0</v>
       </c>
       <c r="CB58" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CC58" t="n">
         <v>0</v>
@@ -27023,7 +27023,7 @@
         <v>0</v>
       </c>
       <c r="AL60" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AM60" t="n">
         <v>0</v>
@@ -27032,13 +27032,13 @@
         <v>0</v>
       </c>
       <c r="AO60" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP60" t="n">
         <v>0</v>
       </c>
       <c r="AQ60" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR60" t="n">
         <v>0</v>
@@ -27134,7 +27134,7 @@
         <v>0</v>
       </c>
       <c r="BW60" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BX60" t="n">
         <v>0</v>
@@ -27146,7 +27146,7 @@
         <v>0</v>
       </c>
       <c r="CA60" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="CB60" t="n">
         <v>0</v>
@@ -27164,7 +27164,7 @@
         <v>0</v>
       </c>
       <c r="CG60" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="CH60" t="n">
         <v>0</v>
@@ -27203,13 +27203,13 @@
         <v>0</v>
       </c>
       <c r="CT60" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="CU60" t="n">
         <v>0</v>
       </c>
       <c r="CV60" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="CW60" t="n">
         <v>0</v>
@@ -27549,7 +27549,7 @@
         <v>0</v>
       </c>
       <c r="BM61" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BN61" t="n">
         <v>0</v>
@@ -27639,7 +27639,7 @@
         <v>0</v>
       </c>
       <c r="CQ61" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CR61" t="n">
         <v>0</v>
@@ -28866,7 +28866,7 @@
         <v>0</v>
       </c>
       <c r="BG64" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BH64" t="n">
         <v>0</v>
@@ -28947,7 +28947,7 @@
         <v>0</v>
       </c>
       <c r="CH64" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="CI64" t="n">
         <v>0</v>
@@ -29690,7 +29690,7 @@
         <v>0</v>
       </c>
       <c r="AK66" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL66" t="n">
         <v>0</v>
@@ -29717,7 +29717,7 @@
         <v>0</v>
       </c>
       <c r="AT66" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU66" t="n">
         <v>0</v>
@@ -29732,7 +29732,7 @@
         <v>0</v>
       </c>
       <c r="AY66" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ66" t="n">
         <v>0</v>
@@ -29780,7 +29780,7 @@
         <v>0</v>
       </c>
       <c r="BO66" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BP66" t="n">
         <v>0</v>
@@ -29840,7 +29840,7 @@
         <v>0</v>
       </c>
       <c r="CI66" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CJ66" t="n">
         <v>0</v>
@@ -29879,7 +29879,7 @@
         <v>0</v>
       </c>
       <c r="CV66" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CW66" t="n">
         <v>0</v>
@@ -30135,7 +30135,7 @@
         <v>0</v>
       </c>
       <c r="AK67" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL67" t="n">
         <v>0</v>
@@ -30162,7 +30162,7 @@
         <v>0</v>
       </c>
       <c r="AT67" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU67" t="n">
         <v>0</v>
@@ -30177,7 +30177,7 @@
         <v>0</v>
       </c>
       <c r="AY67" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ67" t="n">
         <v>0</v>
@@ -30222,7 +30222,7 @@
         <v>0</v>
       </c>
       <c r="BN67" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BO67" t="n">
         <v>0</v>
@@ -30285,7 +30285,7 @@
         <v>0</v>
       </c>
       <c r="CI67" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CJ67" t="n">
         <v>0</v>
@@ -30324,7 +30324,7 @@
         <v>0</v>
       </c>
       <c r="CV67" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CW67" t="n">
         <v>0</v>
@@ -30574,7 +30574,7 @@
         <v>0</v>
       </c>
       <c r="AI68" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ68" t="n">
         <v>0</v>
@@ -30622,10 +30622,10 @@
         <v>0</v>
       </c>
       <c r="AY68" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ68" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA68" t="n">
         <v>0</v>
@@ -30643,7 +30643,7 @@
         <v>0</v>
       </c>
       <c r="BF68" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BG68" t="n">
         <v>0</v>
@@ -30694,7 +30694,7 @@
         <v>0</v>
       </c>
       <c r="BW68" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BX68" t="n">
         <v>0</v>
@@ -31199,7 +31199,7 @@
         <v>0</v>
       </c>
       <c r="CQ69" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CR69" t="n">
         <v>0</v>
@@ -31464,7 +31464,7 @@
         <v>0</v>
       </c>
       <c r="AI70" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ70" t="n">
         <v>0</v>
@@ -31488,7 +31488,7 @@
         <v>0</v>
       </c>
       <c r="AQ70" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR70" t="n">
         <v>0</v>
@@ -31527,7 +31527,7 @@
         <v>0</v>
       </c>
       <c r="BD70" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="BE70" t="n">
         <v>0</v>
@@ -31542,7 +31542,7 @@
         <v>0</v>
       </c>
       <c r="BI70" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BJ70" t="n">
         <v>0</v>
@@ -31659,7 +31659,7 @@
         <v>0</v>
       </c>
       <c r="CV70" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="CW70" t="n">
         <v>0</v>
@@ -32363,7 +32363,7 @@
         <v>0</v>
       </c>
       <c r="AL72" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM72" t="n">
         <v>0</v>
@@ -32396,10 +32396,10 @@
         <v>0</v>
       </c>
       <c r="AW72" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AX72" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY72" t="n">
         <v>0</v>
@@ -32411,16 +32411,16 @@
         <v>0</v>
       </c>
       <c r="BB72" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BC72" t="n">
         <v>0</v>
       </c>
       <c r="BD72" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BE72" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BF72" t="n">
         <v>0</v>
@@ -32474,13 +32474,13 @@
         <v>0</v>
       </c>
       <c r="BW72" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BX72" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BY72" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BZ72" t="n">
         <v>0</v>
@@ -32489,7 +32489,7 @@
         <v>0</v>
       </c>
       <c r="CB72" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CC72" t="n">
         <v>0</v>
@@ -32516,7 +32516,7 @@
         <v>0</v>
       </c>
       <c r="CK72" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CL72" t="n">
         <v>0</v>
@@ -32546,7 +32546,7 @@
         <v>0</v>
       </c>
       <c r="CU72" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CV72" t="n">
         <v>0</v>
@@ -33394,7 +33394,7 @@
         <v>0</v>
       </c>
       <c r="CG74" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="CH74" t="n">
         <v>0</v>
@@ -33737,10 +33737,10 @@
         <v>0</v>
       </c>
       <c r="AY75" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ75" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA75" t="n">
         <v>0</v>
@@ -33752,13 +33752,13 @@
         <v>0</v>
       </c>
       <c r="BD75" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BE75" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BF75" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BG75" t="n">
         <v>0</v>
@@ -33788,7 +33788,7 @@
         <v>0</v>
       </c>
       <c r="BP75" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BQ75" t="n">
         <v>0</v>
@@ -34155,7 +34155,7 @@
         <v>0</v>
       </c>
       <c r="AP76" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ76" t="n">
         <v>0</v>
@@ -35472,7 +35472,7 @@
         <v>0</v>
       </c>
       <c r="AJ79" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK79" t="n">
         <v>0</v>
@@ -35487,13 +35487,13 @@
         <v>0</v>
       </c>
       <c r="AO79" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AP79" t="n">
         <v>0</v>
       </c>
       <c r="AQ79" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR79" t="n">
         <v>0</v>
@@ -35505,7 +35505,7 @@
         <v>0</v>
       </c>
       <c r="AU79" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AV79" t="n">
         <v>0</v>
@@ -35529,13 +35529,13 @@
         <v>0</v>
       </c>
       <c r="BC79" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="BD79" t="n">
         <v>0</v>
       </c>
       <c r="BE79" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BF79" t="n">
         <v>0</v>
@@ -35544,7 +35544,7 @@
         <v>0</v>
       </c>
       <c r="BH79" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BI79" t="n">
         <v>0</v>
@@ -35571,7 +35571,7 @@
         <v>0</v>
       </c>
       <c r="BQ79" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BR79" t="n">
         <v>0</v>
@@ -35977,7 +35977,7 @@
         <v>0</v>
       </c>
       <c r="BD80" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BE80" t="n">
         <v>0</v>
@@ -36419,7 +36419,7 @@
         <v>0</v>
       </c>
       <c r="BC81" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="BD81" t="n">
         <v>0</v>
@@ -36530,13 +36530,13 @@
         <v>0</v>
       </c>
       <c r="CN81" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="CO81" t="n">
         <v>0</v>
       </c>
       <c r="CP81" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="CQ81" t="n">
         <v>0</v>
@@ -36813,7 +36813,7 @@
         <v>0</v>
       </c>
       <c r="AL82" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM82" t="n">
         <v>0</v>
@@ -36828,7 +36828,7 @@
         <v>0</v>
       </c>
       <c r="AQ82" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR82" t="n">
         <v>0</v>
@@ -36837,7 +36837,7 @@
         <v>0</v>
       </c>
       <c r="AT82" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU82" t="n">
         <v>0</v>
@@ -36852,10 +36852,10 @@
         <v>0</v>
       </c>
       <c r="AY82" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AZ82" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA82" t="n">
         <v>0</v>
@@ -36864,10 +36864,10 @@
         <v>0</v>
       </c>
       <c r="BC82" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BD82" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BE82" t="n">
         <v>0</v>
@@ -36876,7 +36876,7 @@
         <v>0</v>
       </c>
       <c r="BG82" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BH82" t="n">
         <v>0</v>
@@ -36897,7 +36897,7 @@
         <v>0</v>
       </c>
       <c r="BN82" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BO82" t="n">
         <v>0</v>
@@ -36930,7 +36930,7 @@
         <v>0</v>
       </c>
       <c r="BY82" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BZ82" t="n">
         <v>0</v>
@@ -36963,7 +36963,7 @@
         <v>0</v>
       </c>
       <c r="CJ82" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CK82" t="n">
         <v>0</v>
@@ -37270,13 +37270,13 @@
         <v>0</v>
       </c>
       <c r="AP83" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="AQ83" t="n">
         <v>0</v>
       </c>
       <c r="AR83" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="AS83" t="n">
         <v>0</v>
@@ -37291,7 +37291,7 @@
         <v>0</v>
       </c>
       <c r="AW83" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AX83" t="n">
         <v>0</v>
@@ -37360,7 +37360,7 @@
         <v>0</v>
       </c>
       <c r="BT83" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BU83" t="n">
         <v>0</v>
@@ -37372,7 +37372,7 @@
         <v>0</v>
       </c>
       <c r="BX83" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BY83" t="n">
         <v>0</v>
@@ -37396,7 +37396,7 @@
         <v>0</v>
       </c>
       <c r="CF83" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="CG83" t="n">
         <v>0</v>
@@ -37429,7 +37429,7 @@
         <v>0</v>
       </c>
       <c r="CQ83" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CR83" t="n">
         <v>0</v>
@@ -37441,7 +37441,7 @@
         <v>0</v>
       </c>
       <c r="CU83" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="CV83" t="n">
         <v>0</v>
@@ -37703,7 +37703,7 @@
         <v>0</v>
       </c>
       <c r="AL84" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AM84" t="n">
         <v>0</v>
@@ -37715,13 +37715,13 @@
         <v>0</v>
       </c>
       <c r="AP84" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AQ84" t="n">
         <v>0</v>
       </c>
       <c r="AR84" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AS84" t="n">
         <v>0</v>
@@ -37736,7 +37736,7 @@
         <v>0</v>
       </c>
       <c r="AW84" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AX84" t="n">
         <v>0</v>
@@ -37814,7 +37814,7 @@
         <v>0</v>
       </c>
       <c r="BW84" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BX84" t="n">
         <v>0</v>
@@ -37832,13 +37832,13 @@
         <v>0</v>
       </c>
       <c r="CC84" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CD84" t="n">
         <v>0</v>
       </c>
       <c r="CE84" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CF84" t="n">
         <v>0</v>
@@ -37886,7 +37886,7 @@
         <v>0</v>
       </c>
       <c r="CU84" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CV84" t="n">
         <v>0</v>
@@ -38671,7 +38671,7 @@
         <v>0</v>
       </c>
       <c r="BL86" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BM86" t="n">
         <v>0</v>
@@ -38719,7 +38719,7 @@
         <v>0</v>
       </c>
       <c r="CB86" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CC86" t="n">
         <v>0</v>
@@ -38770,7 +38770,7 @@
         <v>0</v>
       </c>
       <c r="CS86" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CT86" t="n">
         <v>0</v>
@@ -39026,7 +39026,7 @@
         <v>0</v>
       </c>
       <c r="AH87" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI87" t="n">
         <v>0</v>
@@ -39035,7 +39035,7 @@
         <v>0</v>
       </c>
       <c r="AK87" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL87" t="n">
         <v>0</v>
@@ -39062,7 +39062,7 @@
         <v>0</v>
       </c>
       <c r="AT87" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU87" t="n">
         <v>0</v>
@@ -39077,7 +39077,7 @@
         <v>0</v>
       </c>
       <c r="AY87" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ87" t="n">
         <v>0</v>
@@ -39089,7 +39089,7 @@
         <v>0</v>
       </c>
       <c r="BC87" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BD87" t="n">
         <v>0</v>
@@ -39122,10 +39122,10 @@
         <v>0</v>
       </c>
       <c r="BN87" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BO87" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BP87" t="n">
         <v>0</v>
@@ -39155,7 +39155,7 @@
         <v>0</v>
       </c>
       <c r="BY87" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BZ87" t="n">
         <v>0</v>
@@ -39224,7 +39224,7 @@
         <v>0</v>
       </c>
       <c r="CV87" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CW87" t="n">
         <v>0</v>
@@ -39531,7 +39531,7 @@
         <v>0</v>
       </c>
       <c r="BB88" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="BC88" t="n">
         <v>0</v>
@@ -39979,7 +39979,7 @@
         <v>0</v>
       </c>
       <c r="BC89" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BD89" t="n">
         <v>0</v>
@@ -40030,7 +40030,7 @@
         <v>0</v>
       </c>
       <c r="BT89" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BU89" t="n">
         <v>0</v>
@@ -40054,7 +40054,7 @@
         <v>0</v>
       </c>
       <c r="CB89" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CC89" t="n">
         <v>0</v>
@@ -40872,7 +40872,7 @@
         <v>0</v>
       </c>
       <c r="BD91" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BE91" t="n">
         <v>0</v>
@@ -41302,7 +41302,7 @@
         <v>0</v>
       </c>
       <c r="AY92" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AZ92" t="n">
         <v>0</v>
@@ -41320,7 +41320,7 @@
         <v>0</v>
       </c>
       <c r="BE92" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BF92" t="n">
         <v>0</v>
@@ -41365,10 +41365,10 @@
         <v>0</v>
       </c>
       <c r="BT92" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BU92" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BV92" t="n">
         <v>0</v>
@@ -41392,7 +41392,7 @@
         <v>0</v>
       </c>
       <c r="CC92" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="CD92" t="n">
         <v>0</v>
@@ -41431,7 +41431,7 @@
         <v>0</v>
       </c>
       <c r="CP92" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CQ92" t="n">
         <v>0</v>
@@ -42204,7 +42204,7 @@
         <v>0</v>
       </c>
       <c r="BC94" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="BD94" t="n">
         <v>0</v>
@@ -42282,7 +42282,7 @@
         <v>0</v>
       </c>
       <c r="CC94" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="CD94" t="n">
         <v>0</v>
@@ -42631,7 +42631,7 @@
         <v>0</v>
       </c>
       <c r="AW95" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AX95" t="n">
         <v>0</v>
@@ -44823,7 +44823,7 @@
         <v>0</v>
       </c>
       <c r="AL100" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM100" t="n">
         <v>0</v>
@@ -44853,7 +44853,7 @@
         <v>0</v>
       </c>
       <c r="AV100" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AW100" t="n">
         <v>0</v>
@@ -44889,7 +44889,7 @@
         <v>0</v>
       </c>
       <c r="BH100" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BI100" t="n">
         <v>0</v>
@@ -44916,10 +44916,10 @@
         <v>0</v>
       </c>
       <c r="BQ100" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BR100" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BS100" t="n">
         <v>0</v>
@@ -45358,7 +45358,7 @@
         <v>0</v>
       </c>
       <c r="BP101" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BQ101" t="n">
         <v>0</v>
@@ -45728,7 +45728,7 @@
         <v>0</v>
       </c>
       <c r="AQ102" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR102" t="n">
         <v>0</v>
@@ -46191,7 +46191,7 @@
         <v>0</v>
       </c>
       <c r="AW103" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AX103" t="n">
         <v>0</v>
@@ -47207,7 +47207,7 @@
         <v>0</v>
       </c>
       <c r="CM105" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CN105" t="n">
         <v>0</v>
@@ -47511,7 +47511,7 @@
         <v>0</v>
       </c>
       <c r="AR106" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AS106" t="n">
         <v>0</v>
@@ -47526,7 +47526,7 @@
         <v>0</v>
       </c>
       <c r="AW106" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AX106" t="n">
         <v>0</v>
@@ -47547,7 +47547,7 @@
         <v>0</v>
       </c>
       <c r="BD106" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BE106" t="n">
         <v>0</v>
@@ -47628,10 +47628,10 @@
         <v>0</v>
       </c>
       <c r="CE106" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="CF106" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="CG106" t="n">
         <v>0</v>
@@ -47664,7 +47664,7 @@
         <v>0</v>
       </c>
       <c r="CQ106" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="CR106" t="n">
         <v>0</v>
@@ -47676,7 +47676,7 @@
         <v>0</v>
       </c>
       <c r="CU106" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="CV106" t="n">
         <v>0</v>
@@ -48049,7 +48049,7 @@
         <v>0</v>
       </c>
       <c r="BW107" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BX107" t="n">
         <v>0</v>
@@ -49324,7 +49324,7 @@
         <v>0</v>
       </c>
       <c r="BC110" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BD110" t="n">
         <v>0</v>
@@ -50253,7 +50253,7 @@
         <v>0</v>
       </c>
       <c r="BP112" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BQ112" t="n">
         <v>0</v>
@@ -50295,7 +50295,7 @@
         <v>0</v>
       </c>
       <c r="CD112" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CE112" t="n">
         <v>0</v>
@@ -50659,7 +50659,7 @@
         <v>0</v>
       </c>
       <c r="BC113" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BD113" t="n">
         <v>0</v>
@@ -50680,7 +50680,7 @@
         <v>0</v>
       </c>
       <c r="BJ113" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BK113" t="n">
         <v>0</v>
@@ -50737,7 +50737,7 @@
         <v>0</v>
       </c>
       <c r="CC113" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CD113" t="n">
         <v>0</v>
@@ -51152,7 +51152,7 @@
         <v>0</v>
       </c>
       <c r="BS114" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BT114" t="n">
         <v>0</v>
@@ -51531,7 +51531,7 @@
         <v>0</v>
       </c>
       <c r="AW115" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AX115" t="n">
         <v>0</v>
@@ -52000,7 +52000,7 @@
         <v>0</v>
       </c>
       <c r="BE116" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="BF116" t="n">
         <v>0</v>
@@ -52096,7 +52096,7 @@
         <v>0</v>
       </c>
       <c r="CK116" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CL116" t="n">
         <v>0</v>
@@ -52406,7 +52406,7 @@
         <v>0</v>
       </c>
       <c r="AR117" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AS117" t="n">
         <v>0</v>
@@ -52421,7 +52421,7 @@
         <v>0</v>
       </c>
       <c r="AW117" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AX117" t="n">
         <v>0</v>
@@ -52502,7 +52502,7 @@
         <v>0</v>
       </c>
       <c r="BX117" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BY117" t="n">
         <v>0</v>
@@ -52514,7 +52514,7 @@
         <v>0</v>
       </c>
       <c r="CB117" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CC117" t="n">
         <v>0</v>
@@ -52526,7 +52526,7 @@
         <v>0</v>
       </c>
       <c r="CF117" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="CG117" t="n">
         <v>0</v>
@@ -52559,7 +52559,7 @@
         <v>0</v>
       </c>
       <c r="CQ117" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CR117" t="n">
         <v>0</v>
@@ -52571,7 +52571,7 @@
         <v>0</v>
       </c>
       <c r="CU117" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="CV117" t="n">
         <v>0</v>
@@ -53419,7 +53419,7 @@
         <v>0</v>
       </c>
       <c r="CG119" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="CH119" t="n">
         <v>0</v>
@@ -53879,7 +53879,7 @@
         <v>0</v>
       </c>
       <c r="CL120" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="CM120" t="n">
         <v>0</v>
@@ -54159,7 +54159,7 @@
         <v>0</v>
       </c>
       <c r="AI121" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ121" t="n">
         <v>0</v>
@@ -54168,7 +54168,7 @@
         <v>0</v>
       </c>
       <c r="AL121" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AM121" t="n">
         <v>0</v>
@@ -54180,13 +54180,13 @@
         <v>0</v>
       </c>
       <c r="AP121" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AQ121" t="n">
         <v>0</v>
       </c>
       <c r="AR121" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AS121" t="n">
         <v>0</v>
@@ -54198,34 +54198,34 @@
         <v>0</v>
       </c>
       <c r="AV121" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AW121" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AX121" t="n">
         <v>0</v>
       </c>
       <c r="AY121" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="AZ121" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA121" t="n">
         <v>0</v>
       </c>
       <c r="BB121" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="BC121" t="n">
         <v>0</v>
       </c>
       <c r="BD121" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BE121" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="BF121" t="n">
         <v>0</v>
@@ -54249,34 +54249,34 @@
         <v>0</v>
       </c>
       <c r="BM121" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BN121" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BO121" t="n">
         <v>0</v>
       </c>
       <c r="BP121" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="BQ121" t="n">
         <v>0</v>
       </c>
       <c r="BR121" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BS121" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BT121" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="BU121" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BV121" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="BW121" t="n">
         <v>0</v>
@@ -54288,25 +54288,25 @@
         <v>0</v>
       </c>
       <c r="BZ121" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CA121" t="n">
         <v>0</v>
       </c>
       <c r="CB121" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="CC121" t="n">
         <v>0</v>
       </c>
       <c r="CD121" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CE121" t="n">
         <v>0</v>
       </c>
       <c r="CF121" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="CG121" t="n">
         <v>0</v>
@@ -54318,7 +54318,7 @@
         <v>0</v>
       </c>
       <c r="CJ121" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CK121" t="n">
         <v>0</v>
@@ -54330,16 +54330,16 @@
         <v>0</v>
       </c>
       <c r="CN121" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CO121" t="n">
         <v>0</v>
       </c>
       <c r="CP121" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CQ121" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CR121" t="n">
         <v>0</v>
@@ -54351,7 +54351,7 @@
         <v>0</v>
       </c>
       <c r="CU121" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CV121" t="n">
         <v>0</v>
@@ -54724,7 +54724,7 @@
         <v>0</v>
       </c>
       <c r="BW122" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BX122" t="n">
         <v>0</v>
@@ -57334,13 +57334,13 @@
         <v>0</v>
       </c>
       <c r="BC128" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BD128" t="n">
         <v>0</v>
       </c>
       <c r="BE128" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BF128" t="n">
         <v>0</v>
@@ -57358,7 +57358,7 @@
         <v>0</v>
       </c>
       <c r="BK128" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BL128" t="n">
         <v>0</v>
@@ -57448,7 +57448,7 @@
         <v>0</v>
       </c>
       <c r="CO128" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CP128" t="n">
         <v>0</v>
@@ -57728,13 +57728,13 @@
         <v>0</v>
       </c>
       <c r="AL129" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM129" t="n">
         <v>0</v>
       </c>
       <c r="AN129" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO129" t="n">
         <v>0</v>
@@ -57770,7 +57770,7 @@
         <v>0</v>
       </c>
       <c r="AZ129" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA129" t="n">
         <v>0</v>
@@ -57785,7 +57785,7 @@
         <v>0</v>
       </c>
       <c r="BE129" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BF129" t="n">
         <v>0</v>
@@ -57818,7 +57818,7 @@
         <v>0</v>
       </c>
       <c r="BP129" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BQ129" t="n">
         <v>0</v>
@@ -57833,7 +57833,7 @@
         <v>0</v>
       </c>
       <c r="BU129" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BV129" t="n">
         <v>0</v>
@@ -57869,7 +57869,7 @@
         <v>0</v>
       </c>
       <c r="CG129" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CH129" t="n">
         <v>0</v>
@@ -57908,7 +57908,7 @@
         <v>0</v>
       </c>
       <c r="CT129" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="CU129" t="n">
         <v>0</v>
@@ -58224,7 +58224,7 @@
         <v>0</v>
       </c>
       <c r="BC130" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="BD130" t="n">
         <v>0</v>
@@ -58236,7 +58236,7 @@
         <v>0</v>
       </c>
       <c r="BG130" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BH130" t="n">
         <v>0</v>
@@ -58669,7 +58669,7 @@
         <v>0</v>
       </c>
       <c r="BC131" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BD131" t="n">
         <v>0</v>
@@ -58747,7 +58747,7 @@
         <v>0</v>
       </c>
       <c r="CC131" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CD131" t="n">
         <v>0</v>
@@ -59156,7 +59156,7 @@
         <v>0</v>
       </c>
       <c r="BQ132" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BR132" t="n">
         <v>0</v>
@@ -59508,7 +59508,7 @@
         <v>0</v>
       </c>
       <c r="AL133" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM133" t="n">
         <v>0</v>
@@ -59523,7 +59523,7 @@
         <v>0</v>
       </c>
       <c r="AQ133" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR133" t="n">
         <v>0</v>
@@ -59532,7 +59532,7 @@
         <v>0</v>
       </c>
       <c r="AT133" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU133" t="n">
         <v>0</v>
@@ -59547,7 +59547,7 @@
         <v>0</v>
       </c>
       <c r="AY133" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ133" t="n">
         <v>0</v>
@@ -59559,7 +59559,7 @@
         <v>0</v>
       </c>
       <c r="BC133" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BD133" t="n">
         <v>0</v>
@@ -59625,7 +59625,7 @@
         <v>0</v>
       </c>
       <c r="BY133" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BZ133" t="n">
         <v>0</v>
@@ -59640,7 +59640,7 @@
         <v>0</v>
       </c>
       <c r="CD133" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CE133" t="n">
         <v>0</v>
@@ -59658,7 +59658,7 @@
         <v>0</v>
       </c>
       <c r="CJ133" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CK133" t="n">
         <v>0</v>
@@ -61348,7 +61348,7 @@
         <v>0</v>
       </c>
       <c r="BF137" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BG137" t="n">
         <v>0</v>
@@ -61396,7 +61396,7 @@
         <v>0</v>
       </c>
       <c r="BV137" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BW137" t="n">
         <v>0</v>
@@ -61447,7 +61447,7 @@
         <v>0</v>
       </c>
       <c r="CM137" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CN137" t="n">
         <v>0</v>
@@ -62205,7 +62205,7 @@
         <v>0</v>
       </c>
       <c r="AU139" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AV139" t="n">
         <v>0</v>
@@ -62214,7 +62214,7 @@
         <v>0</v>
       </c>
       <c r="AX139" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY139" t="n">
         <v>0</v>
@@ -62301,7 +62301,7 @@
         <v>0</v>
       </c>
       <c r="CA139" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CB139" t="n">
         <v>0</v>
@@ -62761,7 +62761,7 @@
         <v>0</v>
       </c>
       <c r="CF140" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CG140" t="n">
         <v>0</v>
@@ -63077,7 +63077,7 @@
         <v>0</v>
       </c>
       <c r="AO141" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AP141" t="n">
         <v>0</v>
@@ -63125,7 +63125,7 @@
         <v>0</v>
       </c>
       <c r="BE141" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BF141" t="n">
         <v>0</v>
@@ -63191,7 +63191,7 @@
         <v>0</v>
       </c>
       <c r="CA141" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CB141" t="n">
         <v>0</v>
@@ -63254,7 +63254,7 @@
         <v>0</v>
       </c>
       <c r="CV141" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CW141" t="n">
         <v>0</v>
@@ -64478,7 +64478,7 @@
         <v>0</v>
       </c>
       <c r="BK144" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BL144" t="n">
         <v>0</v>
@@ -65344,7 +65344,7 @@
         <v>0</v>
       </c>
       <c r="BC146" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="BD146" t="n">
         <v>0</v>
@@ -65422,7 +65422,7 @@
         <v>0</v>
       </c>
       <c r="CC146" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CD146" t="n">
         <v>0</v>
@@ -65795,7 +65795,7 @@
         <v>0</v>
       </c>
       <c r="BE147" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BF147" t="n">
         <v>0</v>
@@ -65822,7 +65822,7 @@
         <v>0</v>
       </c>
       <c r="BN147" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BO147" t="n">
         <v>0</v>
@@ -65840,13 +65840,13 @@
         <v>0</v>
       </c>
       <c r="BT147" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BU147" t="n">
         <v>0</v>
       </c>
       <c r="BV147" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BW147" t="n">
         <v>0</v>
@@ -65864,7 +65864,7 @@
         <v>0</v>
       </c>
       <c r="CB147" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CC147" t="n">
         <v>0</v>
@@ -65891,7 +65891,7 @@
         <v>0</v>
       </c>
       <c r="CK147" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CL147" t="n">
         <v>0</v>
@@ -65900,10 +65900,10 @@
         <v>0</v>
       </c>
       <c r="CN147" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="CO147" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CP147" t="n">
         <v>0</v>
